--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3681866.938339173</v>
+        <v>3679979.356822769</v>
       </c>
     </row>
     <row r="7">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>103.0662450902031</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>326.2097809358202</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>9.461970681989216</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>77.72878559814586</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>314.6536463267104</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>64.34226368086765</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>76.48464164091926</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>16.77840076253188</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>104.0001894004425</v>
+        <v>263.3823171366807</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586831</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3.726528083595707</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>26.12759070766427</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002173</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>101.2898147863547</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>111.9679966130648</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>183.1796758466995</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>143.0309728090494</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>183.1796758466998</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>204.1291651532051</v>
+        <v>248.709076340065</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002174</v>
+        <v>173.6793845477817</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>91.82471917435586</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>80.40192578519623</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571488</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523569</v>
+        <v>54.76109577523566</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3016,7 +3016,7 @@
         <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463134</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1222.906241876376</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2593.04177274529</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2593.04177274529</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2339.279987383381</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2339.279987383381</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1986.511332113267</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1613.045573852188</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1222.906241876376</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>649.6150593598222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>649.6150593598222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>649.6150593598222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>421.6255084618049</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>546.1098286224635</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>546.1098286224635</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>546.1098286224635</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>546.1098286224635</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>539.16432787326</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>525.240923811851</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.483574129469</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859355</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982752</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.1098286224635</v>
+        <v>1773.668876279069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4750,25 +4750,25 @@
         <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587809</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="U7" t="n">
-        <v>365.6939024587809</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V7" t="n">
-        <v>365.6939024587809</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W7" t="n">
-        <v>365.6939024587809</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>348.7460229006679</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>907.0907985422225</v>
+        <v>1430.355453824634</v>
       </c>
       <c r="C8" t="n">
-        <v>538.1282816018108</v>
+        <v>1430.355453824634</v>
       </c>
       <c r="D8" t="n">
-        <v>179.8625829950603</v>
+        <v>1072.089755217884</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097701</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2057.295728843236</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>1683.829970582156</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y8" t="n">
-        <v>1293.690638606344</v>
+        <v>1816.955293888756</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064341</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661915</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837983</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>114.273120785888</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064341</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064341</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064341</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5024,13 +5024,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5039,19 +5039,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>441.9005583181184</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C13" t="n">
-        <v>441.9005583181184</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>291.7839189057827</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>291.7839189057827</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>291.7839189057827</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>123.6085972256033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U13" t="n">
-        <v>986.002216560966</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="V13" t="n">
-        <v>731.317728355079</v>
+        <v>709.4512536188988</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181184</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X13" t="n">
-        <v>441.9005583181184</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.9005583181184</v>
+        <v>420.0340835819383</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5358,25 +5358,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1564.731711769082</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1894.594339433114</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>2174.134404651812</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2379.156885434021</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028596</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028596</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038161</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038161</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028596</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,10 +5531,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P18" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.063975947119</v>
@@ -5686,7 +5686,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1274.742180641884</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,7 +5771,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>388.5827690683472</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>388.5827690683472</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5908,22 +5908,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>898.792518248838</v>
       </c>
       <c r="V22" t="n">
-        <v>835.4163915387941</v>
+        <v>898.792518248838</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018334</v>
+        <v>609.3753482118773</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038161</v>
+        <v>609.3753482118773</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>388.5827690683472</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5975,25 +5975,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,13 +6005,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
         <v>1283.483062980063</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765184</v>
+        <v>898.7925182488377</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706317</v>
+        <v>898.7925182488377</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515098</v>
@@ -6251,25 +6251,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881929</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028599</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028596</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028587</v>
@@ -6382,13 +6382,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1212.407445354291</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1212.407445354291</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011508</v>
+        <v>923.2788065678496</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6464,46 +6464,46 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6558,7 +6558,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>637.6995017749887</v>
+        <v>439.5324299542191</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749887</v>
+        <v>326.357112307683</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440238</v>
+        <v>326.357112307683</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430015</v>
+        <v>234.2048840066607</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>234.2048840066607</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569676</v>
@@ -6622,13 +6622,13 @@
         <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962057</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,7 +6637,7 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056075</v>
@@ -6655,16 +6655,16 @@
         <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818937</v>
+        <v>902.6804289818944</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652471</v>
+        <v>730.4517433652479</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652471</v>
+        <v>565.4200295030879</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,22 +6686,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,31 +6716,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6838,61 +6838,61 @@
         <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525403</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649695</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,7 +6932,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
@@ -6959,28 +6959,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,55 +7169,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,61 +7306,61 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083197</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7397,49 +7397,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7564,13 +7564,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7579,10 +7579,10 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
@@ -7591,28 +7591,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,34 +7631,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2497.96918012961</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,13 +7828,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025262</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415605</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>412.6002929596431</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.872441903933</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>308.1251096272036</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>124.340078086323</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>188.8856946302409</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119838</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,16 +10674,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>176.7176547498456</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>124.340078086323</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>176.7176547498454</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>28.12263706263073</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>176.1054520983416</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>122.7862376598719</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>185.2331835502363</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>85.95281337053846</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>103.0576765518778</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>5.584500209162933</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>103.0576765518776</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>82.39383318338588</v>
+        <v>37.81392199652598</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338605</v>
+        <v>24.24142543582158</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.80400437902432</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>30.88838604962421</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>679007.2774849685</v>
+        <v>679007.2774849684</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>705855.5094178227</v>
+        <v>705855.5094178226</v>
       </c>
     </row>
     <row r="12">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778547</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778546</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>738937.5928778545</v>
       </c>
-      <c r="D2" t="n">
-        <v>738937.5928778547</v>
-      </c>
       <c r="E2" t="n">
-        <v>703852.3075278763</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="F2" t="n">
         <v>703852.3075278759</v>
       </c>
       <c r="G2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="H2" t="n">
         <v>703852.3075278761</v>
@@ -26335,25 +26335,25 @@
         <v>703852.3075278759</v>
       </c>
       <c r="J2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="K2" t="n">
-        <v>732279.8472214852</v>
+        <v>732279.8472214856</v>
       </c>
       <c r="L2" t="n">
-        <v>738937.5928778561</v>
+        <v>738937.5928778562</v>
       </c>
       <c r="M2" t="n">
-        <v>738937.5928778562</v>
+        <v>738937.5928778556</v>
       </c>
       <c r="N2" t="n">
         <v>738937.5928778563</v>
       </c>
       <c r="O2" t="n">
-        <v>738937.5928778563</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="P2" t="n">
-        <v>738937.5928778565</v>
+        <v>738937.5928778558</v>
       </c>
     </row>
     <row r="3">
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284574</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086679</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284575</v>
       </c>
     </row>
     <row r="4">
@@ -26427,7 +26427,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="G4" t="n">
         <v>15045.66962143911</v>
@@ -26436,25 +26436,25 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
+        <v>15045.66962143911</v>
+      </c>
+      <c r="J4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="J4" t="n">
-        <v>15045.66962143907</v>
-      </c>
       <c r="K4" t="n">
-        <v>33210.29213563565</v>
+        <v>33210.29213563566</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275958</v>
+      </c>
+      <c r="M4" t="n">
+        <v>37464.45686275963</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37464.45686275963</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275959</v>
-      </c>
-      <c r="M4" t="n">
-        <v>37464.4568627596</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26488,7 +26488,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26497,19 +26497,19 @@
         <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90664.32265132194</v>
+        <v>-90664.3226513218</v>
       </c>
       <c r="C6" t="n">
+        <v>499303.5565632225</v>
+      </c>
+      <c r="D6" t="n">
         <v>499303.5565632224</v>
       </c>
-      <c r="D6" t="n">
-        <v>499303.5565632227</v>
-      </c>
       <c r="E6" t="n">
-        <v>71659.27548082448</v>
+        <v>71561.81635485184</v>
       </c>
       <c r="F6" t="n">
-        <v>596819.3119577202</v>
+        <v>596721.8528317481</v>
       </c>
       <c r="G6" t="n">
-        <v>596819.31195772</v>
+        <v>596721.8528317483</v>
       </c>
       <c r="H6" t="n">
-        <v>596819.3119577204</v>
+        <v>596721.8528317483</v>
       </c>
       <c r="I6" t="n">
-        <v>596819.3119577202</v>
+        <v>596721.8528317481</v>
       </c>
       <c r="J6" t="n">
-        <v>420396.0927651274</v>
+        <v>420298.6336391548</v>
       </c>
       <c r="K6" t="n">
-        <v>558278.7412527811</v>
+        <v>558260.2475148471</v>
       </c>
       <c r="L6" t="n">
-        <v>593415.1233942043</v>
+        <v>593415.1233942045</v>
       </c>
       <c r="M6" t="n">
-        <v>468957.0149612342</v>
+        <v>468957.0149612335</v>
       </c>
       <c r="N6" t="n">
         <v>603758.0301950714</v>
       </c>
       <c r="O6" t="n">
-        <v>603758.0301950714</v>
+        <v>603758.0301950708</v>
       </c>
       <c r="P6" t="n">
-        <v>559595.4248922258</v>
+        <v>559595.4248922251</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26771,10 +26771,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108348</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>71.34946771876848</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>60.02815772023337</v>
       </c>
     </row>
     <row r="3">
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>208.5530886438319</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>9.269126437646776</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>321.895674975186</v>
       </c>
     </row>
     <row r="6">
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>148.550463817165</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>208.9312546265053</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>277.9301806718193</v>
+        <v>118.5480529355811</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27904,22 +27904,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831826</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>142.1113494150891</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,16 +31513,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31534,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775188</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>462.3874039146953</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35735,7 +35735,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>745.7948663576559</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35744,10 +35744,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>246.8854746890071</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35978,10 +35978,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>515.2185245587283</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>457.5346514843358</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>499.3100716807072</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K26" t="n">
         <v>528.689756130333</v>
@@ -36601,7 +36601,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,10 +36926,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075297</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37160,10 +37160,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>492.1965505854582</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37315,7 +37315,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37394,16 +37394,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>509.9122281478584</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>457.5346514843358</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>487.1420318003116</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>116.1356698477048</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
